--- a/CP039/Default.xlsx
+++ b/CP039/Default.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
   <si>
     <t/>
   </si>
@@ -35,18 +35,15 @@
     <t>s_Detalle</t>
   </si>
   <si>
+    <t>rdiazc</t>
+  </si>
+  <si>
     <t>Timer</t>
   </si>
   <si>
-    <t>123456789</t>
-  </si>
-  <si>
     <t>e_Ambiente</t>
   </si>
   <si>
-    <t>Auto_Tsoft1</t>
-  </si>
-  <si>
     <t>Hurto - Equipo y simcard</t>
   </si>
   <si>
@@ -77,7 +74,7 @@
     <t>Inicio</t>
   </si>
   <si>
-    <t>DNI</t>
+    <t>353235103266555 - DESCONOCIDO DESCONOCIDO</t>
   </si>
   <si>
     <t>Fin</t>
@@ -95,37 +92,28 @@
     <t>UAT4</t>
   </si>
   <si>
-    <t>cpontec</t>
-  </si>
-  <si>
     <t>e_Password</t>
   </si>
   <si>
     <t>Pruebas QA</t>
   </si>
   <si>
+    <t>CE</t>
+  </si>
+  <si>
     <t>e_Estado</t>
   </si>
   <si>
     <t>TSOFTAUTOMATIZACION</t>
   </si>
   <si>
-    <t>CE</t>
-  </si>
-  <si>
     <t>e_DniContacto</t>
   </si>
   <si>
     <t>Activo</t>
   </si>
   <si>
-    <t>864984047938899 - MI M1804D2SG</t>
-  </si>
-  <si>
     <t>s_ValEstadoOrden</t>
-  </si>
-  <si>
-    <t>07480870</t>
   </si>
   <si>
     <t>e_ID_Servicio</t>
@@ -316,7 +304,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
@@ -330,13 +318,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
@@ -665,40 +647,40 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9.1484375" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.62890625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.49609375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.03125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.42578125" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9.1484375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row ht="12.75" customHeight="1" customFormat="1">
       <c t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c t="s">
         <v>7</v>
       </c>
       <c t="s">
-        <v>12</v>
-      </c>
-      <c t="s">
-        <v>26</v>
+        <v>11</v>
+      </c>
+      <c t="s">
+        <v>24</v>
       </c>
       <c t="s">
         <v>1</v>
       </c>
       <c t="s">
-        <v>20</v>
-      </c>
-      <c t="s">
-        <v>5</v>
+        <v>19</v>
+      </c>
+      <c t="s">
+        <v>6</v>
       </c>
     </row>
     <row>
@@ -706,13 +688,13 @@
         <v>0</v>
       </c>
       <c s="1" t="s">
-        <v>24</v>
-      </c>
-      <c s="1" t="s">
-        <v>8</v>
-      </c>
-      <c s="1" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c s="1" t="s">
+        <v>5</v>
+      </c>
+      <c s="1" t="s">
+        <v>5</v>
       </c>
       <c s="1" t="s">
         <v>0</v>
@@ -739,7 +721,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="13.5"/>
@@ -752,21 +734,21 @@
   <sheetData>
     <row ht="12.75" customHeight="1" customFormat="1">
       <c t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c t="s">
         <v>2</v>
       </c>
       <c t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row>
       <c s="1" t="s">
-        <v>19</v>
-      </c>
-      <c s="7" t="s">
-        <v>35</v>
+        <v>26</v>
+      </c>
+      <c s="1">
+        <v>198768999</v>
       </c>
       <c s="3"/>
     </row>
@@ -795,7 +777,7 @@
   <sheetData>
     <row ht="12.75" customHeight="1" customFormat="1">
       <c t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row>
@@ -826,105 +808,105 @@
     <col min="1" max="1" width="12.30859375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" style="2" customWidth="1"/>
     <col min="3" max="3" width="21.85546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="29.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.8046875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="45.5703125" style="2" customWidth="1"/>
     <col min="8" max="8" width="20.28515625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="17.62890625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.6796875" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14" style="2" customWidth="1"/>
     <col min="11" max="11" width="15.328125" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.42578125" style="2" customWidth="1"/>
     <col min="13" max="13" width="10.42578125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="19.5703125" style="8" customWidth="1"/>
+    <col min="14" max="14" width="19.5703125" style="6" customWidth="1"/>
     <col min="15" max="16384" width="9.1484375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row ht="12.75" customHeight="1" customFormat="1">
       <c t="s">
-        <v>36</v>
-      </c>
-      <c t="s">
-        <v>28</v>
-      </c>
-      <c t="s">
-        <v>16</v>
+        <v>32</v>
+      </c>
+      <c t="s">
+        <v>27</v>
+      </c>
+      <c t="s">
+        <v>15</v>
       </c>
       <c t="s">
         <v>3</v>
       </c>
       <c t="s">
+        <v>20</v>
+      </c>
+      <c t="s">
+        <v>9</v>
+      </c>
+      <c t="s">
         <v>21</v>
       </c>
       <c t="s">
+        <v>13</v>
+      </c>
+      <c t="s">
+        <v>14</v>
+      </c>
+      <c t="s">
         <v>10</v>
       </c>
       <c t="s">
         <v>22</v>
       </c>
       <c t="s">
-        <v>14</v>
-      </c>
-      <c t="s">
-        <v>15</v>
-      </c>
-      <c t="s">
-        <v>11</v>
-      </c>
-      <c t="s">
-        <v>23</v>
-      </c>
-      <c t="s">
         <v>1</v>
       </c>
       <c t="s">
         <v>4</v>
       </c>
       <c t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row ht="12.75" customHeight="1" s="2" customFormat="1">
       <c s="1">
-        <v>650009796</v>
-      </c>
-      <c s="1" t="s">
-        <v>32</v>
-      </c>
-      <c s="1" t="s">
-        <v>9</v>
-      </c>
-      <c s="1" t="s">
-        <v>33</v>
-      </c>
-      <c s="1" t="s">
-        <v>27</v>
+        <v>650006146</v>
+      </c>
+      <c s="1" t="s">
+        <v>30</v>
+      </c>
+      <c s="1" t="s">
+        <v>8</v>
+      </c>
+      <c s="1" t="s">
+        <v>18</v>
+      </c>
+      <c s="1" t="s">
+        <v>25</v>
       </c>
       <c s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c s="4" t="s">
-        <v>29</v>
-      </c>
-      <c s="1" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c s="1" t="s">
+        <v>26</v>
+      </c>
+      <c s="1">
+        <v>198768999</v>
+      </c>
+      <c s="1" t="s">
+        <v>0</v>
+      </c>
+      <c s="1" t="s">
+        <v>16</v>
+      </c>
+      <c s="1" t="s">
+        <v>0</v>
+      </c>
+      <c s="1" t="s">
+        <v>0</v>
       </c>
       <c s="5" t="s">
-        <v>6</v>
-      </c>
-      <c s="1" t="s">
-        <v>0</v>
-      </c>
-      <c s="1" t="s">
-        <v>17</v>
-      </c>
-      <c s="1" t="s">
-        <v>0</v>
-      </c>
-      <c s="1" t="s">
-        <v>0</v>
-      </c>
-      <c s="6" t="s">
         <v>0</v>
       </c>
     </row>
